--- a/calculo_precios/disponibilidad_precios_siiam.xlsx
+++ b/calculo_precios/disponibilidad_precios_siiam.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8080" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12900" windowHeight="14300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>trigo</t>
   </si>
   <si>
-    <t>avena forrakera</t>
-  </si>
-  <si>
     <t>cártamo</t>
   </si>
   <si>
@@ -147,12 +144,6 @@
     <t>1,4</t>
   </si>
   <si>
-    <t>como viene el precio</t>
-  </si>
-  <si>
-    <t>x kg en bolsa de 50 kg</t>
-  </si>
-  <si>
     <t>producto</t>
   </si>
   <si>
@@ -163,6 +154,12 @@
   </si>
   <si>
     <t>precuarios</t>
+  </si>
+  <si>
+    <t>avena forrajera</t>
+  </si>
+  <si>
+    <t>comentario</t>
   </si>
 </sst>
 </file>
@@ -599,295 +596,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1">
         <v>332355</v>
       </c>
-      <c r="D17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23">
         <v>605</v>
       </c>
-      <c r="D23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>35</v>
-      </c>
       <c r="B31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -895,28 +880,28 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
